--- a/data/shifts.xlsx
+++ b/data/shifts.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="10">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -465,13 +465,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="23.24"/>
@@ -902,6 +902,416 @@
         <v>7</v>
       </c>
     </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="n">
+        <v>45843</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="n">
+        <v>45844</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="6" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="6" t="n">
+        <v>45850</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6" t="n">
+        <v>45851</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="6" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="6" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="6" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="6" t="n">
+        <v>45857</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="6" t="n">
+        <v>45858</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="6" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="6" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="6" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="6" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="6" t="n">
+        <v>45864</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="6" t="n">
+        <v>45865</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="6" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="6" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="6" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="6" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="6"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
